--- a/medicine/Handicap/Syndrome_de_Bland-White-Garland/Syndrome_de_Bland-White-Garland.xlsx
+++ b/medicine/Handicap/Syndrome_de_Bland-White-Garland/Syndrome_de_Bland-White-Garland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ALCAPA est un acronyme anglais signifiant abnormal left cororary artery from pulmonary artery, aussi nommé Syndrome Bland-White-Garland, qui désigne une pathologie malformative cardiaque du nourrisson en rapport avec une naissance anormale de la coronaire gauche : celle-ci au lieu de naître du sinus aortique gauche naît de l'artère pulmonaire.
 Le syndrome porte le nom des cardiologues américains Edward Franklin Bland (1901–1992), Paul Dudley White (1893–1973) et Joseph Garland (1886–1973).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette anomalie entraîne une myocardiopathie dilatée hypokinétique curable.
 Le tableau clinique est stéréotypé : apparition d'une insuffisance cardiaque congestive chez un nourrisson de quelques mois. Cette pathologie se manifeste lors de la baisse physiologique des résistances vasculaires pulmonaires entraînant une diminution de la perfusion myocardique.
